--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem3/67/incorrect_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem3/67/incorrect_predictions_67.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,31 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>If the propellers are installed correctly and the aircraft still cannot takeoff,</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6-17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem3/67/incorrect_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem3/67/incorrect_predictions_67.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,31 +485,6 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>If the propellers are installed correctly and the aircraft still cannot takeoff,</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6-17</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
